--- a/biology/Médecine/Bart_Huges/Bart_Huges.xlsx
+++ b/biology/Médecine/Bart_Huges/Bart_Huges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bart Huges (23 avril 1934, 30 août 2004) est un bibliothécaire néerlandais partisan de la trépanation.
 Recalé à l'examen de médecine de l'université d'Amsterdam, il développa l'idée qu'il fallait permettre d'évacuer le sang en excès dans le cerveau pour améliorer ses capacités mentales. Pour tenter de valider cette idée, il réalisa sur lui-même une trépanation en 1965. 
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bart Huges, Brieven aan de Supermens. Amsterdam, Stichting Onafhankelijk Denken, 1982
 Charles Baudelaire, Over de wijn en de hasjiesj vergeleken als middelen om de individualiteit te vermenigvuldigen. Vert door Bart Huges. Amsterdam, Peter van der Velden, 1982.  (ISBN 90-6521-129-2)
